--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H2">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I2">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J2">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N2">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q2">
-        <v>151.5101863737612</v>
+        <v>159.254415952702</v>
       </c>
       <c r="R2">
-        <v>151.5101863737612</v>
+        <v>1433.289743574318</v>
       </c>
       <c r="S2">
-        <v>0.1838568243095122</v>
+        <v>0.1680597463228244</v>
       </c>
       <c r="T2">
-        <v>0.1838568243095122</v>
+        <v>0.1680597463228244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H3">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I3">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J3">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N3">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q3">
-        <v>117.6316667619204</v>
+        <v>121.9706955491967</v>
       </c>
       <c r="R3">
-        <v>117.6316667619204</v>
+        <v>1097.73625994277</v>
       </c>
       <c r="S3">
-        <v>0.1427454167057044</v>
+        <v>0.1287145730320243</v>
       </c>
       <c r="T3">
-        <v>0.1427454167057044</v>
+        <v>0.1287145730320243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H4">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I4">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J4">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N4">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O4">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P4">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q4">
-        <v>97.16965763052013</v>
+        <v>107.3361072123387</v>
       </c>
       <c r="R4">
-        <v>97.16965763052013</v>
+        <v>966.0249649110481</v>
       </c>
       <c r="S4">
-        <v>0.1179148748924246</v>
+        <v>0.1132708241807411</v>
       </c>
       <c r="T4">
-        <v>0.1179148748924246</v>
+        <v>0.1132708241807411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H5">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I5">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J5">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N5">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q5">
-        <v>60.01819797194644</v>
+        <v>80.78265376834803</v>
       </c>
       <c r="R5">
-        <v>60.01819797194644</v>
+        <v>727.0438839151321</v>
       </c>
       <c r="S5">
-        <v>0.07283177153963752</v>
+        <v>0.0852492046664831</v>
       </c>
       <c r="T5">
-        <v>0.07283177153963752</v>
+        <v>0.08524920466648309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H6">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I6">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J6">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N6">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q6">
-        <v>64.02844057129565</v>
+        <v>66.27943443288532</v>
       </c>
       <c r="R6">
-        <v>64.02844057129565</v>
+        <v>596.514909895968</v>
       </c>
       <c r="S6">
-        <v>0.07769818010709974</v>
+        <v>0.06994408833547948</v>
       </c>
       <c r="T6">
-        <v>0.07769818010709974</v>
+        <v>0.06994408833547948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H7">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I7">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J7">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N7">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q7">
-        <v>49.71132545496253</v>
+        <v>50.76247757416888</v>
       </c>
       <c r="R7">
-        <v>49.71132545496253</v>
+        <v>456.86229816752</v>
       </c>
       <c r="S7">
-        <v>0.06032443526812841</v>
+        <v>0.05356918395510363</v>
       </c>
       <c r="T7">
-        <v>0.06032443526812841</v>
+        <v>0.05356918395510364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H8">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I8">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J8">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N8">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O8">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P8">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q8">
-        <v>41.06404854905765</v>
+        <v>44.67176899116089</v>
       </c>
       <c r="R8">
-        <v>41.06404854905765</v>
+        <v>402.0459209204479</v>
       </c>
       <c r="S8">
-        <v>0.04983100965169743</v>
+        <v>0.04714171421579933</v>
       </c>
       <c r="T8">
-        <v>0.04983100965169743</v>
+        <v>0.04714171421579932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H9">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I9">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J9">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N9">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q9">
-        <v>25.36378387498667</v>
+        <v>33.620597405248</v>
       </c>
       <c r="R9">
-        <v>25.36378387498667</v>
+        <v>302.585376647232</v>
       </c>
       <c r="S9">
-        <v>0.03077882000767878</v>
+        <v>0.03547951268632888</v>
       </c>
       <c r="T9">
-        <v>0.03077882000767878</v>
+        <v>0.03547951268632888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H10">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I10">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J10">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N10">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q10">
-        <v>33.8068955466013</v>
+        <v>39.459849796794</v>
       </c>
       <c r="R10">
-        <v>33.8068955466013</v>
+        <v>355.138648171146</v>
       </c>
       <c r="S10">
-        <v>0.04102449217261302</v>
+        <v>0.04164162297864017</v>
       </c>
       <c r="T10">
-        <v>0.04102449217261302</v>
+        <v>0.04164162297864016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H11">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I11">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J11">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N11">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q11">
-        <v>26.24748583822981</v>
+        <v>30.22173857591</v>
       </c>
       <c r="R11">
-        <v>26.24748583822981</v>
+        <v>271.99564718319</v>
       </c>
       <c r="S11">
-        <v>0.03185118775064463</v>
+        <v>0.03189272767174389</v>
       </c>
       <c r="T11">
-        <v>0.03185118775064463</v>
+        <v>0.03189272767174389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H12">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I12">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J12">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N12">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O12">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P12">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q12">
-        <v>21.68173998354283</v>
+        <v>26.595599519384</v>
       </c>
       <c r="R12">
-        <v>21.68173998354283</v>
+        <v>239.360395674456</v>
       </c>
       <c r="S12">
-        <v>0.02631067886778813</v>
+        <v>0.02806609588683918</v>
       </c>
       <c r="T12">
-        <v>0.02631067886778813</v>
+        <v>0.02806609588683918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H13">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I13">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J13">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N13">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O13">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P13">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q13">
-        <v>13.39202992416239</v>
+        <v>20.016219737556</v>
       </c>
       <c r="R13">
-        <v>13.39202992416239</v>
+        <v>180.145977638004</v>
       </c>
       <c r="S13">
-        <v>0.01625115876262209</v>
+        <v>0.02112293584646749</v>
       </c>
       <c r="T13">
-        <v>0.01625115876262209</v>
+        <v>0.02112293584646749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H14">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I14">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J14">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N14">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O14">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P14">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q14">
-        <v>43.5133007317726</v>
+        <v>56.54119423100799</v>
       </c>
       <c r="R14">
-        <v>43.5133007317726</v>
+        <v>508.870748079072</v>
       </c>
       <c r="S14">
-        <v>0.05280316445544268</v>
+        <v>0.0596674114335071</v>
       </c>
       <c r="T14">
-        <v>0.05280316445544268</v>
+        <v>0.05966741143350709</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H15">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I15">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J15">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N15">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P15">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q15">
-        <v>33.78348488572342</v>
+        <v>43.30409769978667</v>
       </c>
       <c r="R15">
-        <v>33.78348488572342</v>
+        <v>389.7368792980801</v>
       </c>
       <c r="S15">
-        <v>0.04099608345721896</v>
+        <v>0.04569842305865097</v>
       </c>
       <c r="T15">
-        <v>0.04099608345721896</v>
+        <v>0.04569842305865097</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H16">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I16">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J16">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N16">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O16">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P16">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q16">
-        <v>27.90685323328496</v>
+        <v>38.10827881655467</v>
       </c>
       <c r="R16">
-        <v>27.90685323328496</v>
+        <v>342.974509348992</v>
       </c>
       <c r="S16">
-        <v>0.03386482146676302</v>
+        <v>0.04021532233436934</v>
       </c>
       <c r="T16">
-        <v>0.03386482146676302</v>
+        <v>0.04021532233436933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H17">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I17">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J17">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N17">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O17">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P17">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q17">
-        <v>17.23705818227842</v>
+        <v>28.680823008192</v>
       </c>
       <c r="R17">
-        <v>17.23705818227842</v>
+        <v>258.127407073728</v>
       </c>
       <c r="S17">
-        <v>0.02091708058502424</v>
+        <v>0.03026661339499763</v>
       </c>
       <c r="T17">
-        <v>0.02091708058502424</v>
+        <v>0.03026661339499762</v>
       </c>
     </row>
   </sheetData>
